--- a/Code/Results/Cases/Case_1_186/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_186/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9523476102355413</v>
+        <v>1.034815561719928</v>
       </c>
       <c r="D2">
-        <v>1.035370914247889</v>
+        <v>1.035297447015192</v>
       </c>
       <c r="E2">
-        <v>0.970145071795271</v>
+        <v>1.042762738731573</v>
       </c>
       <c r="F2">
-        <v>0.9697795819015363</v>
+        <v>1.050890842935073</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048064950065204</v>
+        <v>1.034534133364597</v>
       </c>
       <c r="J2">
-        <v>0.976053410353504</v>
+        <v>1.039932740324115</v>
       </c>
       <c r="K2">
-        <v>1.046358525009917</v>
+        <v>1.038094455115816</v>
       </c>
       <c r="L2">
-        <v>0.9820366211353823</v>
+        <v>1.045538509624168</v>
       </c>
       <c r="M2">
-        <v>0.9816766323935542</v>
+        <v>1.053643863112506</v>
       </c>
       <c r="N2">
-        <v>0.9956036665142797</v>
+        <v>1.017162448885601</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9637574957449146</v>
+        <v>1.036723362601519</v>
       </c>
       <c r="D3">
-        <v>1.039522069539183</v>
+        <v>1.035885561459303</v>
       </c>
       <c r="E3">
-        <v>0.9804635943579518</v>
+        <v>1.044490844565024</v>
       </c>
       <c r="F3">
-        <v>0.9818905378426588</v>
+        <v>1.05280599178856</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050767506533311</v>
+        <v>1.034769907342393</v>
       </c>
       <c r="J3">
-        <v>0.9852874139182841</v>
+        <v>1.041478991770305</v>
       </c>
       <c r="K3">
-        <v>1.049673049390005</v>
+        <v>1.038492523902997</v>
       </c>
       <c r="L3">
-        <v>0.9913527045357921</v>
+        <v>1.04707511352033</v>
       </c>
       <c r="M3">
-        <v>0.9927604994122509</v>
+        <v>1.055368712701102</v>
       </c>
       <c r="N3">
-        <v>0.9987183334802696</v>
+        <v>1.01767990087845</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9707495910522815</v>
+        <v>1.037950091219948</v>
       </c>
       <c r="D4">
-        <v>1.042070119958003</v>
+        <v>1.036261271265468</v>
       </c>
       <c r="E4">
-        <v>0.9867815034957629</v>
+        <v>1.045600844316189</v>
       </c>
       <c r="F4">
-        <v>0.9892741123182863</v>
+        <v>1.054032842284199</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052390369172905</v>
+        <v>1.03491649139569</v>
       </c>
       <c r="J4">
-        <v>0.9909323213706005</v>
+        <v>1.042471626739734</v>
       </c>
       <c r="K4">
-        <v>1.051685985649699</v>
+        <v>1.038744575414643</v>
       </c>
       <c r="L4">
-        <v>0.9970421263719532</v>
+        <v>1.048060769489872</v>
       </c>
       <c r="M4">
-        <v>0.9995037366731923</v>
+        <v>1.056472043143198</v>
       </c>
       <c r="N4">
-        <v>1.000622155990562</v>
+        <v>1.018011922914198</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9736046642139377</v>
+        <v>1.03846398425653</v>
       </c>
       <c r="D5">
-        <v>1.043110729754424</v>
+        <v>1.036418064424282</v>
       </c>
       <c r="E5">
-        <v>0.989359930098452</v>
+        <v>1.046065552928426</v>
       </c>
       <c r="F5">
-        <v>0.9922801018709866</v>
+        <v>1.054545680688036</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053044693651412</v>
+        <v>1.034976687745506</v>
       </c>
       <c r="J5">
-        <v>0.9932340039237589</v>
+        <v>1.042887066782579</v>
       </c>
       <c r="K5">
-        <v>1.052502993152113</v>
+        <v>1.038849218412895</v>
       </c>
       <c r="L5">
-        <v>0.9993606185705891</v>
+        <v>1.048473099481937</v>
       </c>
       <c r="M5">
-        <v>1.002245636518003</v>
+        <v>1.056932859515044</v>
       </c>
       <c r="N5">
-        <v>1.0013983426317</v>
+        <v>1.018150842421148</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.974079332531073</v>
+        <v>1.038550163097499</v>
       </c>
       <c r="D6">
-        <v>1.043283722845487</v>
+        <v>1.036444323032604</v>
       </c>
       <c r="E6">
-        <v>0.9897885229889892</v>
+        <v>1.046143466859169</v>
       </c>
       <c r="F6">
-        <v>0.9927793399103162</v>
+        <v>1.054631617690058</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053152977351901</v>
+        <v>1.034986711356661</v>
       </c>
       <c r="J6">
-        <v>0.9936164748454488</v>
+        <v>1.042956712446053</v>
       </c>
       <c r="K6">
-        <v>1.052638518552997</v>
+        <v>1.038866711151093</v>
       </c>
       <c r="L6">
-        <v>0.9997458041861182</v>
+        <v>1.048542212634044</v>
       </c>
       <c r="M6">
-        <v>1.002700814108031</v>
+        <v>1.057010056197283</v>
       </c>
       <c r="N6">
-        <v>1.001527315652018</v>
+        <v>1.018174129014341</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9707880613420602</v>
+        <v>1.037956965008603</v>
       </c>
       <c r="D7">
-        <v>1.042084141888668</v>
+        <v>1.03626337087801</v>
       </c>
       <c r="E7">
-        <v>0.9868162516297658</v>
+        <v>1.045607061342559</v>
       </c>
       <c r="F7">
-        <v>0.989314651394669</v>
+        <v>1.054039706321897</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052399219376484</v>
+        <v>1.034917301347047</v>
       </c>
       <c r="J7">
-        <v>0.9909633481678591</v>
+        <v>1.042477185158395</v>
       </c>
       <c r="K7">
-        <v>1.051697014618916</v>
+        <v>1.038745978839442</v>
       </c>
       <c r="L7">
-        <v>0.9970733850805409</v>
+        <v>1.048066287043479</v>
       </c>
       <c r="M7">
-        <v>0.9995407277356327</v>
+        <v>1.056478212433229</v>
       </c>
       <c r="N7">
-        <v>1.000632619414053</v>
+        <v>1.018013781755193</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9562906085339895</v>
+        <v>1.035461934628642</v>
       </c>
       <c r="D8">
-        <v>1.036804007809995</v>
+        <v>1.035497207245904</v>
       </c>
       <c r="E8">
-        <v>0.9737120347104319</v>
+        <v>1.043348475161851</v>
       </c>
       <c r="F8">
-        <v>0.9739731924675977</v>
+        <v>1.051540660414111</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049005808360499</v>
+        <v>1.034615054137837</v>
       </c>
       <c r="J8">
-        <v>0.9792474414259117</v>
+        <v>1.040456953413713</v>
       </c>
       <c r="K8">
-        <v>1.047507496217655</v>
+        <v>1.038230130592062</v>
       </c>
       <c r="L8">
-        <v>0.9852602739549826</v>
+        <v>1.046059614899318</v>
       </c>
       <c r="M8">
-        <v>0.9855176492613771</v>
+        <v>1.054229446094204</v>
       </c>
       <c r="N8">
-        <v>0.9966810531593447</v>
+        <v>1.017337910131062</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9272309282133129</v>
+        <v>1.03100462721931</v>
       </c>
       <c r="D9">
-        <v>1.026304685271026</v>
+        <v>1.034109893198158</v>
       </c>
       <c r="E9">
-        <v>0.9474021788619683</v>
+        <v>1.039304462225264</v>
       </c>
       <c r="F9">
-        <v>0.942879385283024</v>
+        <v>1.047040632927376</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041937305527116</v>
+        <v>1.034036502637194</v>
       </c>
       <c r="J9">
-        <v>0.9556436861421823</v>
+        <v>1.036835395170628</v>
       </c>
       <c r="K9">
-        <v>1.03898493146509</v>
+        <v>1.037278649100277</v>
       </c>
       <c r="L9">
-        <v>0.9614104445107498</v>
+        <v>1.042456297969375</v>
       </c>
       <c r="M9">
-        <v>0.9569725771519183</v>
+        <v>1.050167610431851</v>
       </c>
       <c r="N9">
-        <v>0.9887199135180981</v>
+        <v>1.016125059080258</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9045156160162738</v>
+        <v>1.027990208780578</v>
       </c>
       <c r="D10">
-        <v>1.018244486350885</v>
+        <v>1.033159712661439</v>
       </c>
       <c r="E10">
-        <v>0.9268118098031609</v>
+        <v>1.036563496932742</v>
       </c>
       <c r="F10">
-        <v>0.918303385301712</v>
+        <v>1.043973514424503</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036258625657573</v>
+        <v>1.033619634612117</v>
       </c>
       <c r="J10">
-        <v>0.9371062983347331</v>
+        <v>1.034377842122566</v>
       </c>
       <c r="K10">
-        <v>1.032291963289313</v>
+        <v>1.036615490036467</v>
       </c>
       <c r="L10">
-        <v>0.9426414229397575</v>
+        <v>1.040007083406405</v>
       </c>
       <c r="M10">
-        <v>0.9343229309316443</v>
+        <v>1.047390864392556</v>
       </c>
       <c r="N10">
-        <v>0.9824711369764441</v>
+        <v>1.01530120031428</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8935508115137422</v>
+        <v>1.026674292436487</v>
       </c>
       <c r="D11">
-        <v>1.014415919770554</v>
+        <v>1.032742203364343</v>
       </c>
       <c r="E11">
-        <v>0.9168683833802863</v>
+        <v>1.035365534749142</v>
       </c>
       <c r="F11">
-        <v>0.9063649018923448</v>
+        <v>1.042628969256411</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033490808890828</v>
+        <v>1.033431665293385</v>
       </c>
       <c r="J11">
-        <v>0.9281362775807358</v>
+        <v>1.033303052808874</v>
       </c>
       <c r="K11">
-        <v>1.029070999113444</v>
+        <v>1.036321426279513</v>
       </c>
       <c r="L11">
-        <v>0.9335489774742708</v>
+        <v>1.038934991967482</v>
       </c>
       <c r="M11">
-        <v>0.9232986318491271</v>
+        <v>1.046171670837178</v>
       </c>
       <c r="N11">
-        <v>0.9794494013554897</v>
+        <v>1.014940699230803</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8892654020458544</v>
+        <v>1.026183860528799</v>
       </c>
       <c r="D12">
-        <v>1.012932007928587</v>
+        <v>1.032586202569772</v>
       </c>
       <c r="E12">
-        <v>0.9129816742816833</v>
+        <v>1.034918851480594</v>
       </c>
       <c r="F12">
-        <v>0.9016862800971944</v>
+        <v>1.042127024439101</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.0324061944748</v>
+        <v>1.033360717419134</v>
       </c>
       <c r="J12">
-        <v>0.9246270638242865</v>
+        <v>1.032902192333577</v>
       </c>
       <c r="K12">
-        <v>1.027815575236014</v>
+        <v>1.036211152988595</v>
       </c>
       <c r="L12">
-        <v>0.9299901713755343</v>
+        <v>1.03853499585217</v>
       </c>
       <c r="M12">
-        <v>0.9189749842515876</v>
+        <v>1.04571623275531</v>
       </c>
       <c r="N12">
-        <v>0.9782676765061622</v>
+        <v>1.014806215566526</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8901951400622107</v>
+        <v>1.026289134819485</v>
       </c>
       <c r="D13">
-        <v>1.013253332786102</v>
+        <v>1.032619706978097</v>
       </c>
       <c r="E13">
-        <v>0.9138249314061708</v>
+        <v>1.035014744419184</v>
       </c>
       <c r="F13">
-        <v>0.9027019218789112</v>
+        <v>1.042234808161885</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032641612601825</v>
+        <v>1.033375987118812</v>
       </c>
       <c r="J13">
-        <v>0.9253885595970238</v>
+        <v>1.032988252873279</v>
       </c>
       <c r="K13">
-        <v>1.028087753072501</v>
+        <v>1.036234854378232</v>
       </c>
       <c r="L13">
-        <v>0.9307625077049293</v>
+        <v>1.038620877227864</v>
       </c>
       <c r="M13">
-        <v>0.9199137159934906</v>
+        <v>1.045814043041731</v>
       </c>
       <c r="N13">
-        <v>0.9785240879918803</v>
+        <v>1.014835089097351</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8932012260716923</v>
+        <v>1.02663378692227</v>
       </c>
       <c r="D14">
-        <v>1.014294598917338</v>
+        <v>1.032729327082095</v>
       </c>
       <c r="E14">
-        <v>0.9165513309309106</v>
+        <v>1.035328646813903</v>
       </c>
       <c r="F14">
-        <v>0.9059835029771268</v>
+        <v>1.042587530047384</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033402380283346</v>
+        <v>1.0334258237639</v>
       </c>
       <c r="J14">
-        <v>0.9278500806385126</v>
+        <v>1.033269951137172</v>
       </c>
       <c r="K14">
-        <v>1.028968504903154</v>
+        <v>1.036312332410325</v>
       </c>
       <c r="L14">
-        <v>0.9332587710229451</v>
+        <v>1.038901964557943</v>
       </c>
       <c r="M14">
-        <v>0.9229462363892376</v>
+        <v>1.046134076982932</v>
       </c>
       <c r="N14">
-        <v>0.9793530153644657</v>
+        <v>1.014929594620322</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8950236265081486</v>
+        <v>1.0268459196174</v>
       </c>
       <c r="D15">
-        <v>1.014927566602853</v>
+        <v>1.032796745631959</v>
       </c>
       <c r="E15">
-        <v>0.9182041173031128</v>
+        <v>1.035521825111378</v>
       </c>
       <c r="F15">
-        <v>0.9079712315072149</v>
+        <v>1.042804518150852</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03386325449878</v>
+        <v>1.033456380132481</v>
       </c>
       <c r="J15">
-        <v>0.9293418962512067</v>
+        <v>1.03344329688708</v>
       </c>
       <c r="K15">
-        <v>1.029502961285301</v>
+        <v>1.036359930517938</v>
       </c>
       <c r="L15">
-        <v>0.9347714173955737</v>
+        <v>1.039074915618372</v>
       </c>
       <c r="M15">
-        <v>0.9247826762866113</v>
+        <v>1.046330917839426</v>
       </c>
       <c r="N15">
-        <v>0.9798554499914912</v>
+        <v>1.014987745704276</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9052162242526343</v>
+        <v>1.028077313851869</v>
       </c>
       <c r="D16">
-        <v>1.018490599303314</v>
+        <v>1.033187292837283</v>
       </c>
       <c r="E16">
-        <v>0.9274470813116811</v>
+        <v>1.036642764510735</v>
       </c>
       <c r="F16">
-        <v>0.9190645917711532</v>
+        <v>1.04406239658902</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036435029013302</v>
+        <v>1.033631951739803</v>
       </c>
       <c r="J16">
-        <v>0.9376789967354795</v>
+        <v>1.034448944911817</v>
       </c>
       <c r="K16">
-        <v>1.03249811575226</v>
+        <v>1.036634859913527</v>
       </c>
       <c r="L16">
-        <v>0.9432217193219695</v>
+        <v>1.040077987864517</v>
       </c>
       <c r="M16">
-        <v>0.935025411755978</v>
+        <v>1.04747141958965</v>
       </c>
       <c r="N16">
-        <v>0.9826641115783699</v>
+        <v>1.01532504525716</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9112819453607409</v>
+        <v>1.02884685385885</v>
       </c>
       <c r="D17">
-        <v>1.020628422864594</v>
+        <v>1.033430641869079</v>
       </c>
       <c r="E17">
-        <v>0.9329466736996098</v>
+        <v>1.037342900165164</v>
       </c>
       <c r="F17">
-        <v>0.9256466410051356</v>
+        <v>1.044846989934177</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037959491780016</v>
+        <v>1.033740080726752</v>
       </c>
       <c r="J17">
-        <v>0.9426349056752782</v>
+        <v>1.035076884672134</v>
       </c>
       <c r="K17">
-        <v>1.034284176663469</v>
+        <v>1.036805460971638</v>
       </c>
       <c r="L17">
-        <v>0.948242243737878</v>
+        <v>1.040704067120565</v>
       </c>
       <c r="M17">
-        <v>0.9410973225370906</v>
+        <v>1.048182285505323</v>
       </c>
       <c r="N17">
-        <v>0.9843342641716972</v>
+        <v>1.015535608130805</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9147146203236837</v>
+        <v>1.029294688504554</v>
       </c>
       <c r="D18">
-        <v>1.02184362951751</v>
+        <v>1.033571997577309</v>
       </c>
       <c r="E18">
-        <v>0.93605856541675</v>
+        <v>1.037750208512862</v>
       </c>
       <c r="F18">
-        <v>0.9293648000969766</v>
+        <v>1.045303044855638</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038819716687687</v>
+        <v>1.033802430956585</v>
       </c>
       <c r="J18">
-        <v>0.945437555587214</v>
+        <v>1.035442125939351</v>
       </c>
       <c r="K18">
-        <v>1.035295672856097</v>
+        <v>1.036904303290076</v>
       </c>
       <c r="L18">
-        <v>0.9510805142913109</v>
+        <v>1.041068135166205</v>
       </c>
       <c r="M18">
-        <v>0.9445253699731838</v>
+        <v>1.048595299449585</v>
       </c>
       <c r="N18">
-        <v>0.9852789319333397</v>
+        <v>1.015658063466718</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9158682591330822</v>
+        <v>1.029447215919971</v>
       </c>
       <c r="D19">
-        <v>1.022252869475499</v>
+        <v>1.033620097073367</v>
       </c>
       <c r="E19">
-        <v>0.9371043242180417</v>
+        <v>1.037888909961193</v>
       </c>
       <c r="F19">
-        <v>0.9306132750170503</v>
+        <v>1.045458280350888</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03910836708944</v>
+        <v>1.033823568910652</v>
       </c>
       <c r="J19">
-        <v>0.9463791277208757</v>
+        <v>1.035566490907123</v>
       </c>
       <c r="K19">
-        <v>1.035635689920201</v>
+        <v>1.036937893125338</v>
       </c>
       <c r="L19">
-        <v>0.9520339006166527</v>
+        <v>1.041192085183621</v>
       </c>
       <c r="M19">
-        <v>0.9456761043391989</v>
+        <v>1.048735852718709</v>
       </c>
       <c r="N19">
-        <v>0.9855963258908516</v>
+        <v>1.015699756452219</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9106423081226293</v>
+        <v>1.028764395817984</v>
       </c>
       <c r="D20">
-        <v>1.02040240525587</v>
+        <v>1.033404593445423</v>
       </c>
       <c r="E20">
-        <v>0.9323667765560842</v>
+        <v>1.037267893073191</v>
       </c>
       <c r="F20">
-        <v>0.9249532663771176</v>
+        <v>1.044762974787347</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037798988999737</v>
+        <v>1.033728553985105</v>
       </c>
       <c r="J20">
-        <v>0.942112506005221</v>
+        <v>1.035009618990648</v>
       </c>
       <c r="K20">
-        <v>1.034095745292908</v>
+        <v>1.036787226066878</v>
       </c>
       <c r="L20">
-        <v>0.947713130148596</v>
+        <v>1.040637010162302</v>
       </c>
       <c r="M20">
-        <v>0.9404578907185623</v>
+        <v>1.048106184421785</v>
       </c>
       <c r="N20">
-        <v>0.9841581959021141</v>
+        <v>1.01551305429958</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8923223097584808</v>
+        <v>1.026532341134023</v>
       </c>
       <c r="D21">
-        <v>1.01398978790905</v>
+        <v>1.032697072124528</v>
       </c>
       <c r="E21">
-        <v>0.9157542008496907</v>
+        <v>1.035236257810582</v>
       </c>
       <c r="F21">
-        <v>0.9050243950913529</v>
+        <v>1.042483732221965</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03318001485584</v>
+        <v>1.033411179298496</v>
       </c>
       <c r="J21">
-        <v>0.9271304783706761</v>
+        <v>1.033187043467616</v>
       </c>
       <c r="K21">
-        <v>1.028710879715465</v>
+        <v>1.036289545960525</v>
       </c>
       <c r="L21">
-        <v>0.9325290597675371</v>
+        <v>1.038819240601064</v>
       </c>
       <c r="M21">
-        <v>0.9220600112593245</v>
+        <v>1.046039906421545</v>
       </c>
       <c r="N21">
-        <v>0.9791106735326828</v>
+        <v>1.014901781138718</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8795375854029006</v>
+        <v>1.02511943831338</v>
       </c>
       <c r="D22">
-        <v>1.009591188571485</v>
+        <v>1.032246903301043</v>
       </c>
       <c r="E22">
-        <v>0.9041582095740212</v>
+        <v>1.033948993409828</v>
       </c>
       <c r="F22">
-        <v>0.8910401711748654</v>
+        <v>1.041036072198406</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029940405571725</v>
+        <v>1.033205105180018</v>
       </c>
       <c r="J22">
-        <v>0.9166545628708005</v>
+        <v>1.032031634905193</v>
       </c>
       <c r="K22">
-        <v>1.02497500691825</v>
+        <v>1.035970585592437</v>
       </c>
       <c r="L22">
-        <v>0.9219016025200495</v>
+        <v>1.037666056400572</v>
       </c>
       <c r="M22">
-        <v>0.9091303910451538</v>
+        <v>1.044725832202587</v>
       </c>
       <c r="N22">
-        <v>0.9755839261190346</v>
+        <v>1.014514101986201</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8864545154795541</v>
+        <v>1.025869361515181</v>
       </c>
       <c r="D23">
-        <v>1.011962657149343</v>
+        <v>1.032486053094797</v>
       </c>
       <c r="E23">
-        <v>0.9104321896592578</v>
+        <v>1.03463234759764</v>
       </c>
       <c r="F23">
-        <v>0.8986136905743691</v>
+        <v>1.041804905309641</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03169414191459</v>
+        <v>1.033314970037931</v>
       </c>
       <c r="J23">
-        <v>0.9223243086220563</v>
+        <v>1.032645049843316</v>
       </c>
       <c r="K23">
-        <v>1.026993387687777</v>
+        <v>1.036140248204193</v>
       </c>
       <c r="L23">
-        <v>0.9276543709260395</v>
+        <v>1.038278367964468</v>
       </c>
       <c r="M23">
-        <v>0.9161345823133612</v>
+        <v>1.045423877684343</v>
       </c>
       <c r="N23">
-        <v>0.9774923656736364</v>
+        <v>1.01471993940614</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9109316552130724</v>
+        <v>1.028801658222824</v>
       </c>
       <c r="D24">
-        <v>1.020504630225592</v>
+        <v>1.033416365416554</v>
       </c>
       <c r="E24">
-        <v>0.9326291008167181</v>
+        <v>1.037301788850802</v>
       </c>
       <c r="F24">
-        <v>0.9252669430979651</v>
+        <v>1.044800942511711</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037871602103989</v>
+        <v>1.033733764646852</v>
       </c>
       <c r="J24">
-        <v>0.9423488255109183</v>
+        <v>1.035040016623571</v>
       </c>
       <c r="K24">
-        <v>1.034180982159169</v>
+        <v>1.036795467694514</v>
       </c>
       <c r="L24">
-        <v>0.9479524897217619</v>
+        <v>1.040667313754143</v>
       </c>
       <c r="M24">
-        <v>0.9407471702406491</v>
+        <v>1.048140576236106</v>
       </c>
       <c r="N24">
-        <v>0.9842378439151216</v>
+        <v>1.015523246524483</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9352446484129299</v>
+        <v>1.032164352601877</v>
       </c>
       <c r="D25">
-        <v>1.029183020596401</v>
+        <v>1.03447298592578</v>
       </c>
       <c r="E25">
-        <v>0.9546619781513775</v>
+        <v>1.040357719978881</v>
       </c>
       <c r="F25">
-        <v>0.9514954642084333</v>
+        <v>1.048215651267788</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043914043102387</v>
+        <v>1.034191544136822</v>
       </c>
       <c r="J25">
-        <v>0.9621666821242204</v>
+        <v>1.037779135333547</v>
       </c>
       <c r="K25">
-        <v>1.041344590120943</v>
+        <v>1.037529691485739</v>
       </c>
       <c r="L25">
-        <v>0.9680073956598871</v>
+        <v>1.043395994198505</v>
       </c>
       <c r="M25">
-        <v>0.9648965097408772</v>
+        <v>1.051229666170977</v>
       </c>
       <c r="N25">
-        <v>0.9909197099472656</v>
+        <v>1.016441261573967</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_186/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_186/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034815561719928</v>
+        <v>0.9523476102355399</v>
       </c>
       <c r="D2">
-        <v>1.035297447015192</v>
+        <v>1.035370914247889</v>
       </c>
       <c r="E2">
-        <v>1.042762738731573</v>
+        <v>0.9701450717952699</v>
       </c>
       <c r="F2">
-        <v>1.050890842935073</v>
+        <v>0.9697795819015351</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034534133364597</v>
+        <v>1.048064950065204</v>
       </c>
       <c r="J2">
-        <v>1.039932740324115</v>
+        <v>0.9760534103535028</v>
       </c>
       <c r="K2">
-        <v>1.038094455115816</v>
+        <v>1.046358525009917</v>
       </c>
       <c r="L2">
-        <v>1.045538509624168</v>
+        <v>0.9820366211353811</v>
       </c>
       <c r="M2">
-        <v>1.053643863112506</v>
+        <v>0.9816766323935531</v>
       </c>
       <c r="N2">
-        <v>1.017162448885601</v>
+        <v>0.9956036665142793</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036723362601519</v>
+        <v>0.9637574957449113</v>
       </c>
       <c r="D3">
-        <v>1.035885561459303</v>
+        <v>1.039522069539182</v>
       </c>
       <c r="E3">
-        <v>1.044490844565024</v>
+        <v>0.9804635943579482</v>
       </c>
       <c r="F3">
-        <v>1.05280599178856</v>
+        <v>0.9818905378426553</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034769907342393</v>
+        <v>1.050767506533311</v>
       </c>
       <c r="J3">
-        <v>1.041478991770305</v>
+        <v>0.9852874139182807</v>
       </c>
       <c r="K3">
-        <v>1.038492523902997</v>
+        <v>1.049673049390004</v>
       </c>
       <c r="L3">
-        <v>1.04707511352033</v>
+        <v>0.9913527045357886</v>
       </c>
       <c r="M3">
-        <v>1.055368712701102</v>
+        <v>0.9927604994122474</v>
       </c>
       <c r="N3">
-        <v>1.01767990087845</v>
+        <v>0.9987183334802684</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037950091219948</v>
+        <v>0.9707495910522814</v>
       </c>
       <c r="D4">
-        <v>1.036261271265468</v>
+        <v>1.042070119958003</v>
       </c>
       <c r="E4">
-        <v>1.045600844316189</v>
+        <v>0.9867815034957629</v>
       </c>
       <c r="F4">
-        <v>1.054032842284199</v>
+        <v>0.9892741123182862</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03491649139569</v>
+        <v>1.052390369172905</v>
       </c>
       <c r="J4">
-        <v>1.042471626739734</v>
+        <v>0.9909323213706004</v>
       </c>
       <c r="K4">
-        <v>1.038744575414643</v>
+        <v>1.051685985649698</v>
       </c>
       <c r="L4">
-        <v>1.048060769489872</v>
+        <v>0.9970421263719532</v>
       </c>
       <c r="M4">
-        <v>1.056472043143198</v>
+        <v>0.9995037366731921</v>
       </c>
       <c r="N4">
-        <v>1.018011922914198</v>
+        <v>1.000622155990562</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03846398425653</v>
+        <v>0.973604664213936</v>
       </c>
       <c r="D5">
-        <v>1.036418064424282</v>
+        <v>1.043110729754423</v>
       </c>
       <c r="E5">
-        <v>1.046065552928426</v>
+        <v>0.9893599300984504</v>
       </c>
       <c r="F5">
-        <v>1.054545680688036</v>
+        <v>0.9922801018709848</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034976687745506</v>
+        <v>1.053044693651412</v>
       </c>
       <c r="J5">
-        <v>1.042887066782579</v>
+        <v>0.9932340039237575</v>
       </c>
       <c r="K5">
-        <v>1.038849218412895</v>
+        <v>1.052502993152111</v>
       </c>
       <c r="L5">
-        <v>1.048473099481937</v>
+        <v>0.9993606185705874</v>
       </c>
       <c r="M5">
-        <v>1.056932859515044</v>
+        <v>1.002245636518001</v>
       </c>
       <c r="N5">
-        <v>1.018150842421148</v>
+        <v>1.001398342631699</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038550163097499</v>
+        <v>0.9740793325310728</v>
       </c>
       <c r="D6">
-        <v>1.036444323032604</v>
+        <v>1.043283722845486</v>
       </c>
       <c r="E6">
-        <v>1.046143466859169</v>
+        <v>0.9897885229889889</v>
       </c>
       <c r="F6">
-        <v>1.054631617690058</v>
+        <v>0.9927793399103161</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034986711356661</v>
+        <v>1.053152977351901</v>
       </c>
       <c r="J6">
-        <v>1.042956712446053</v>
+        <v>0.9936164748454486</v>
       </c>
       <c r="K6">
-        <v>1.038866711151093</v>
+        <v>1.052638518552996</v>
       </c>
       <c r="L6">
-        <v>1.048542212634044</v>
+        <v>0.999745804186118</v>
       </c>
       <c r="M6">
-        <v>1.057010056197283</v>
+        <v>1.002700814108031</v>
       </c>
       <c r="N6">
-        <v>1.018174129014341</v>
+        <v>1.001527315652018</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037956965008603</v>
+        <v>0.9707880613420601</v>
       </c>
       <c r="D7">
-        <v>1.03626337087801</v>
+        <v>1.042084141888667</v>
       </c>
       <c r="E7">
-        <v>1.045607061342559</v>
+        <v>0.9868162516297658</v>
       </c>
       <c r="F7">
-        <v>1.054039706321897</v>
+        <v>0.9893146513946691</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034917301347047</v>
+        <v>1.052399219376484</v>
       </c>
       <c r="J7">
-        <v>1.042477185158395</v>
+        <v>0.9909633481678591</v>
       </c>
       <c r="K7">
-        <v>1.038745978839442</v>
+        <v>1.051697014618916</v>
       </c>
       <c r="L7">
-        <v>1.048066287043479</v>
+        <v>0.9970733850805409</v>
       </c>
       <c r="M7">
-        <v>1.056478212433229</v>
+        <v>0.9995407277356327</v>
       </c>
       <c r="N7">
-        <v>1.018013781755193</v>
+        <v>1.000632619414053</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035461934628642</v>
+        <v>0.9562906085339888</v>
       </c>
       <c r="D8">
-        <v>1.035497207245904</v>
+        <v>1.036804007809995</v>
       </c>
       <c r="E8">
-        <v>1.043348475161851</v>
+        <v>0.9737120347104318</v>
       </c>
       <c r="F8">
-        <v>1.051540660414111</v>
+        <v>0.9739731924675974</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034615054137837</v>
+        <v>1.049005808360499</v>
       </c>
       <c r="J8">
-        <v>1.040456953413713</v>
+        <v>0.9792474414259115</v>
       </c>
       <c r="K8">
-        <v>1.038230130592062</v>
+        <v>1.047507496217655</v>
       </c>
       <c r="L8">
-        <v>1.046059614899318</v>
+        <v>0.9852602739549823</v>
       </c>
       <c r="M8">
-        <v>1.054229446094204</v>
+        <v>0.9855176492613766</v>
       </c>
       <c r="N8">
-        <v>1.017337910131062</v>
+        <v>0.9966810531593449</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03100462721931</v>
+        <v>0.9272309282133119</v>
       </c>
       <c r="D9">
-        <v>1.034109893198158</v>
+        <v>1.026304685271026</v>
       </c>
       <c r="E9">
-        <v>1.039304462225264</v>
+        <v>0.9474021788619675</v>
       </c>
       <c r="F9">
-        <v>1.047040632927376</v>
+        <v>0.9428793852830231</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034036502637194</v>
+        <v>1.041937305527115</v>
       </c>
       <c r="J9">
-        <v>1.036835395170628</v>
+        <v>0.9556436861421814</v>
       </c>
       <c r="K9">
-        <v>1.037278649100277</v>
+        <v>1.038984931465089</v>
       </c>
       <c r="L9">
-        <v>1.042456297969375</v>
+        <v>0.9614104445107489</v>
       </c>
       <c r="M9">
-        <v>1.050167610431851</v>
+        <v>0.9569725771519176</v>
       </c>
       <c r="N9">
-        <v>1.016125059080258</v>
+        <v>0.9887199135180976</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027990208780578</v>
+        <v>0.9045156160162737</v>
       </c>
       <c r="D10">
-        <v>1.033159712661439</v>
+        <v>1.018244486350885</v>
       </c>
       <c r="E10">
-        <v>1.036563496932742</v>
+        <v>0.9268118098031607</v>
       </c>
       <c r="F10">
-        <v>1.043973514424503</v>
+        <v>0.9183033853017117</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033619634612117</v>
+        <v>1.036258625657573</v>
       </c>
       <c r="J10">
-        <v>1.034377842122566</v>
+        <v>0.9371062983347329</v>
       </c>
       <c r="K10">
-        <v>1.036615490036467</v>
+        <v>1.032291963289313</v>
       </c>
       <c r="L10">
-        <v>1.040007083406405</v>
+        <v>0.9426414229397572</v>
       </c>
       <c r="M10">
-        <v>1.047390864392556</v>
+        <v>0.9343229309316439</v>
       </c>
       <c r="N10">
-        <v>1.01530120031428</v>
+        <v>0.9824711369764439</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026674292436487</v>
+        <v>0.8935508115137418</v>
       </c>
       <c r="D11">
-        <v>1.032742203364343</v>
+        <v>1.014415919770553</v>
       </c>
       <c r="E11">
-        <v>1.035365534749142</v>
+        <v>0.9168683833802858</v>
       </c>
       <c r="F11">
-        <v>1.042628969256411</v>
+        <v>0.9063649018923439</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033431665293385</v>
+        <v>1.033490808890827</v>
       </c>
       <c r="J11">
-        <v>1.033303052808874</v>
+        <v>0.9281362775807354</v>
       </c>
       <c r="K11">
-        <v>1.036321426279513</v>
+        <v>1.029070999113443</v>
       </c>
       <c r="L11">
-        <v>1.038934991967482</v>
+        <v>0.9335489774742701</v>
       </c>
       <c r="M11">
-        <v>1.046171670837178</v>
+        <v>0.9232986318491265</v>
       </c>
       <c r="N11">
-        <v>1.014940699230803</v>
+        <v>0.9794494013554897</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026183860528799</v>
+        <v>0.8892654020458531</v>
       </c>
       <c r="D12">
-        <v>1.032586202569772</v>
+        <v>1.012932007928588</v>
       </c>
       <c r="E12">
-        <v>1.034918851480594</v>
+        <v>0.9129816742816825</v>
       </c>
       <c r="F12">
-        <v>1.042127024439101</v>
+        <v>0.9016862800971935</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033360717419134</v>
+        <v>1.0324061944748</v>
       </c>
       <c r="J12">
-        <v>1.032902192333577</v>
+        <v>0.9246270638242855</v>
       </c>
       <c r="K12">
-        <v>1.036211152988595</v>
+        <v>1.027815575236014</v>
       </c>
       <c r="L12">
-        <v>1.03853499585217</v>
+        <v>0.9299901713755335</v>
       </c>
       <c r="M12">
-        <v>1.04571623275531</v>
+        <v>0.918974984251587</v>
       </c>
       <c r="N12">
-        <v>1.014806215566526</v>
+        <v>0.9782676765061619</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026289134819485</v>
+        <v>0.8901951400622089</v>
       </c>
       <c r="D13">
-        <v>1.032619706978097</v>
+        <v>1.013253332786101</v>
       </c>
       <c r="E13">
-        <v>1.035014744419184</v>
+        <v>0.9138249314061693</v>
       </c>
       <c r="F13">
-        <v>1.042234808161885</v>
+        <v>0.9027019218789094</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033375987118812</v>
+        <v>1.032641612601825</v>
       </c>
       <c r="J13">
-        <v>1.032988252873279</v>
+        <v>0.9253885595970222</v>
       </c>
       <c r="K13">
-        <v>1.036234854378232</v>
+        <v>1.0280877530725</v>
       </c>
       <c r="L13">
-        <v>1.038620877227864</v>
+        <v>0.9307625077049276</v>
       </c>
       <c r="M13">
-        <v>1.045814043041731</v>
+        <v>0.9199137159934889</v>
       </c>
       <c r="N13">
-        <v>1.014835089097351</v>
+        <v>0.9785240879918796</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.02663378692227</v>
+        <v>0.8932012260716903</v>
       </c>
       <c r="D14">
-        <v>1.032729327082095</v>
+        <v>1.014294598917337</v>
       </c>
       <c r="E14">
-        <v>1.035328646813903</v>
+        <v>0.916551330930909</v>
       </c>
       <c r="F14">
-        <v>1.042587530047384</v>
+        <v>0.9059835029771249</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0334258237639</v>
+        <v>1.033402380283345</v>
       </c>
       <c r="J14">
-        <v>1.033269951137172</v>
+        <v>0.9278500806385113</v>
       </c>
       <c r="K14">
-        <v>1.036312332410325</v>
+        <v>1.028968504903153</v>
       </c>
       <c r="L14">
-        <v>1.038901964557943</v>
+        <v>0.9332587710229439</v>
       </c>
       <c r="M14">
-        <v>1.046134076982932</v>
+        <v>0.9229462363892356</v>
       </c>
       <c r="N14">
-        <v>1.014929594620322</v>
+        <v>0.9793530153644651</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.0268459196174</v>
+        <v>0.8950236265081494</v>
       </c>
       <c r="D15">
-        <v>1.032796745631959</v>
+        <v>1.014927566602853</v>
       </c>
       <c r="E15">
-        <v>1.035521825111378</v>
+        <v>0.9182041173031135</v>
       </c>
       <c r="F15">
-        <v>1.042804518150852</v>
+        <v>0.9079712315072158</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033456380132481</v>
+        <v>1.03386325449878</v>
       </c>
       <c r="J15">
-        <v>1.03344329688708</v>
+        <v>0.9293418962512076</v>
       </c>
       <c r="K15">
-        <v>1.036359930517938</v>
+        <v>1.029502961285301</v>
       </c>
       <c r="L15">
-        <v>1.039074915618372</v>
+        <v>0.9347714173955742</v>
       </c>
       <c r="M15">
-        <v>1.046330917839426</v>
+        <v>0.9247826762866123</v>
       </c>
       <c r="N15">
-        <v>1.014987745704276</v>
+        <v>0.9798554499914914</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028077313851869</v>
+        <v>0.9052162242526334</v>
       </c>
       <c r="D16">
-        <v>1.033187292837283</v>
+        <v>1.018490599303314</v>
       </c>
       <c r="E16">
-        <v>1.036642764510735</v>
+        <v>0.9274470813116805</v>
       </c>
       <c r="F16">
-        <v>1.04406239658902</v>
+        <v>0.9190645917711523</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033631951739803</v>
+        <v>1.036435029013303</v>
       </c>
       <c r="J16">
-        <v>1.034448944911817</v>
+        <v>0.9376789967354787</v>
       </c>
       <c r="K16">
-        <v>1.036634859913527</v>
+        <v>1.03249811575226</v>
       </c>
       <c r="L16">
-        <v>1.040077987864517</v>
+        <v>0.9432217193219687</v>
       </c>
       <c r="M16">
-        <v>1.04747141958965</v>
+        <v>0.9350254117559772</v>
       </c>
       <c r="N16">
-        <v>1.01532504525716</v>
+        <v>0.9826641115783694</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02884685385885</v>
+        <v>0.9112819453607391</v>
       </c>
       <c r="D17">
-        <v>1.033430641869079</v>
+        <v>1.020628422864594</v>
       </c>
       <c r="E17">
-        <v>1.037342900165164</v>
+        <v>0.9329466736996083</v>
       </c>
       <c r="F17">
-        <v>1.044846989934177</v>
+        <v>0.9256466410051336</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033740080726752</v>
+        <v>1.037959491780016</v>
       </c>
       <c r="J17">
-        <v>1.035076884672134</v>
+        <v>0.9426349056752766</v>
       </c>
       <c r="K17">
-        <v>1.036805460971638</v>
+        <v>1.034284176663469</v>
       </c>
       <c r="L17">
-        <v>1.040704067120565</v>
+        <v>0.9482422437378764</v>
       </c>
       <c r="M17">
-        <v>1.048182285505323</v>
+        <v>0.9410973225370887</v>
       </c>
       <c r="N17">
-        <v>1.015535608130805</v>
+        <v>0.9843342641716966</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029294688504554</v>
+        <v>0.9147146203236833</v>
       </c>
       <c r="D18">
-        <v>1.033571997577309</v>
+        <v>1.02184362951751</v>
       </c>
       <c r="E18">
-        <v>1.037750208512862</v>
+        <v>0.9360585654167496</v>
       </c>
       <c r="F18">
-        <v>1.045303044855638</v>
+        <v>0.9293648000969761</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033802430956585</v>
+        <v>1.038819716687687</v>
       </c>
       <c r="J18">
-        <v>1.035442125939351</v>
+        <v>0.9454375555872137</v>
       </c>
       <c r="K18">
-        <v>1.036904303290076</v>
+        <v>1.035295672856096</v>
       </c>
       <c r="L18">
-        <v>1.041068135166205</v>
+        <v>0.9510805142913102</v>
       </c>
       <c r="M18">
-        <v>1.048595299449585</v>
+        <v>0.9445253699731834</v>
       </c>
       <c r="N18">
-        <v>1.015658063466718</v>
+        <v>0.9852789319333395</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029447215919971</v>
+        <v>0.9158682591330807</v>
       </c>
       <c r="D19">
-        <v>1.033620097073367</v>
+        <v>1.022252869475498</v>
       </c>
       <c r="E19">
-        <v>1.037888909961193</v>
+        <v>0.93710432421804</v>
       </c>
       <c r="F19">
-        <v>1.045458280350888</v>
+        <v>0.9306132750170487</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033823568910652</v>
+        <v>1.03910836708944</v>
       </c>
       <c r="J19">
-        <v>1.035566490907123</v>
+        <v>0.9463791277208743</v>
       </c>
       <c r="K19">
-        <v>1.036937893125338</v>
+        <v>1.035635689920201</v>
       </c>
       <c r="L19">
-        <v>1.041192085183621</v>
+        <v>0.9520339006166511</v>
       </c>
       <c r="M19">
-        <v>1.048735852718709</v>
+        <v>0.9456761043391974</v>
       </c>
       <c r="N19">
-        <v>1.015699756452219</v>
+        <v>0.9855963258908511</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028764395817984</v>
+        <v>0.9106423081226305</v>
       </c>
       <c r="D20">
-        <v>1.033404593445423</v>
+        <v>1.020402405255871</v>
       </c>
       <c r="E20">
-        <v>1.037267893073191</v>
+        <v>0.9323667765560856</v>
       </c>
       <c r="F20">
-        <v>1.044762974787347</v>
+        <v>0.9249532663771189</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033728553985105</v>
+        <v>1.037798988999737</v>
       </c>
       <c r="J20">
-        <v>1.035009618990648</v>
+        <v>0.9421125060052223</v>
       </c>
       <c r="K20">
-        <v>1.036787226066878</v>
+        <v>1.034095745292908</v>
       </c>
       <c r="L20">
-        <v>1.040637010162302</v>
+        <v>0.9477131301485974</v>
       </c>
       <c r="M20">
-        <v>1.048106184421785</v>
+        <v>0.940457890718564</v>
       </c>
       <c r="N20">
-        <v>1.01551305429958</v>
+        <v>0.9841581959021145</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026532341134023</v>
+        <v>0.8923223097584809</v>
       </c>
       <c r="D21">
-        <v>1.032697072124528</v>
+        <v>1.01398978790905</v>
       </c>
       <c r="E21">
-        <v>1.035236257810582</v>
+        <v>0.9157542008496908</v>
       </c>
       <c r="F21">
-        <v>1.042483732221965</v>
+        <v>0.9050243950913535</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033411179298496</v>
+        <v>1.033180014855841</v>
       </c>
       <c r="J21">
-        <v>1.033187043467616</v>
+        <v>0.9271304783706761</v>
       </c>
       <c r="K21">
-        <v>1.036289545960525</v>
+        <v>1.028710879715465</v>
       </c>
       <c r="L21">
-        <v>1.038819240601064</v>
+        <v>0.9325290597675373</v>
       </c>
       <c r="M21">
-        <v>1.046039906421545</v>
+        <v>0.922060011259325</v>
       </c>
       <c r="N21">
-        <v>1.014901781138718</v>
+        <v>0.9791106735326828</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02511943831338</v>
+        <v>0.8795375854028998</v>
       </c>
       <c r="D22">
-        <v>1.032246903301043</v>
+        <v>1.009591188571485</v>
       </c>
       <c r="E22">
-        <v>1.033948993409828</v>
+        <v>0.9041582095740209</v>
       </c>
       <c r="F22">
-        <v>1.041036072198406</v>
+        <v>0.8910401711748644</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033205105180018</v>
+        <v>1.029940405571725</v>
       </c>
       <c r="J22">
-        <v>1.032031634905193</v>
+        <v>0.9166545628708002</v>
       </c>
       <c r="K22">
-        <v>1.035970585592437</v>
+        <v>1.02497500691825</v>
       </c>
       <c r="L22">
-        <v>1.037666056400572</v>
+        <v>0.9219016025200489</v>
       </c>
       <c r="M22">
-        <v>1.044725832202587</v>
+        <v>0.9091303910451531</v>
       </c>
       <c r="N22">
-        <v>1.014514101986201</v>
+        <v>0.9755839261190346</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025869361515181</v>
+        <v>0.8864545154795542</v>
       </c>
       <c r="D23">
-        <v>1.032486053094797</v>
+        <v>1.011962657149343</v>
       </c>
       <c r="E23">
-        <v>1.03463234759764</v>
+        <v>0.9104321896592578</v>
       </c>
       <c r="F23">
-        <v>1.041804905309641</v>
+        <v>0.898613690574369</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033314970037931</v>
+        <v>1.03169414191459</v>
       </c>
       <c r="J23">
-        <v>1.032645049843316</v>
+        <v>0.9223243086220563</v>
       </c>
       <c r="K23">
-        <v>1.036140248204193</v>
+        <v>1.026993387687777</v>
       </c>
       <c r="L23">
-        <v>1.038278367964468</v>
+        <v>0.9276543709260395</v>
       </c>
       <c r="M23">
-        <v>1.045423877684343</v>
+        <v>0.9161345823133612</v>
       </c>
       <c r="N23">
-        <v>1.01471993940614</v>
+        <v>0.9774923656736365</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028801658222824</v>
+        <v>0.910931655213073</v>
       </c>
       <c r="D24">
-        <v>1.033416365416554</v>
+        <v>1.020504630225592</v>
       </c>
       <c r="E24">
-        <v>1.037301788850802</v>
+        <v>0.9326291008167185</v>
       </c>
       <c r="F24">
-        <v>1.044800942511711</v>
+        <v>0.9252669430979651</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033733764646852</v>
+        <v>1.037871602103989</v>
       </c>
       <c r="J24">
-        <v>1.035040016623571</v>
+        <v>0.9423488255109188</v>
       </c>
       <c r="K24">
-        <v>1.036795467694514</v>
+        <v>1.034180982159169</v>
       </c>
       <c r="L24">
-        <v>1.040667313754143</v>
+        <v>0.9479524897217623</v>
       </c>
       <c r="M24">
-        <v>1.048140576236106</v>
+        <v>0.9407471702406491</v>
       </c>
       <c r="N24">
-        <v>1.015523246524483</v>
+        <v>0.9842378439151218</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032164352601877</v>
+        <v>0.9352446484129298</v>
       </c>
       <c r="D25">
-        <v>1.03447298592578</v>
+        <v>1.029183020596401</v>
       </c>
       <c r="E25">
-        <v>1.040357719978881</v>
+        <v>0.954661978151377</v>
       </c>
       <c r="F25">
-        <v>1.048215651267788</v>
+        <v>0.9514954642084331</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034191544136822</v>
+        <v>1.043914043102386</v>
       </c>
       <c r="J25">
-        <v>1.037779135333547</v>
+        <v>0.9621666821242201</v>
       </c>
       <c r="K25">
-        <v>1.037529691485739</v>
+        <v>1.041344590120943</v>
       </c>
       <c r="L25">
-        <v>1.043395994198505</v>
+        <v>0.9680073956598869</v>
       </c>
       <c r="M25">
-        <v>1.051229666170977</v>
+        <v>0.9648965097408769</v>
       </c>
       <c r="N25">
-        <v>1.016441261573967</v>
+        <v>0.9909197099472655</v>
       </c>
     </row>
   </sheetData>
